--- a/documents/API仕様書.xlsx
+++ b/documents/API仕様書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>API名</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>APIのメソッド</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>返却されるデータのフォーマット</t>
   </si>
   <si>
     <t>text</t>
@@ -942,17 +936,18 @@
   </sheetPr>
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34:A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="A15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.09767441860465"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1209302325581"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="9.09767441860465"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.8697674418605"/>
-    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="9.09767441860465"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.92558139534884"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="9.92558139534884"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.9116279069767"/>
+    <col collapsed="false" hidden="false" max="26" min="8" style="0" width="9.92558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1953488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1402,7 +1397,9 @@
         <v>25</v>
       </c>
       <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
+      <c r="K14" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -1420,27 +1417,17 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="26" t="s">
-        <v>32</v>
-      </c>
+      <c r="K15" s="26"/>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -1627,11 +1614,11 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -1676,7 +1663,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3300,12 +3287,13 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A34:A35 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A15:O15 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="9.09767441860465"/>
+    <col collapsed="false" hidden="false" max="26" min="1" style="0" width="9.92558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.1953488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3346,12 +3334,12 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -3362,11 +3350,11 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3418,12 +3406,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
@@ -3484,7 +3472,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -3604,7 +3592,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -3675,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -3713,10 +3701,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3726,11 +3714,11 @@
         <v>24</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
@@ -3753,10 +3741,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -3766,11 +3754,11 @@
         <v>24</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
@@ -3793,10 +3781,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -3806,11 +3794,11 @@
         <v>24</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
@@ -3833,10 +3821,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3871,10 +3859,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -3884,11 +3872,11 @@
         <v>24</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
@@ -3911,10 +3899,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -3924,11 +3912,11 @@
         <v>24</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L18" s="26"/>
       <c r="M18" s="26"/>
@@ -4032,11 +4020,11 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -4081,7 +4069,7 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -4105,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -4142,17 +4130,17 @@
         <v>2</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="51" t="n">
@@ -4181,21 +4169,21 @@
         <v>3</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I26" s="52"/>
       <c r="J26" s="53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K26" s="53"/>
       <c r="L26" s="53"/>
@@ -4220,17 +4208,17 @@
         <v>4</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="56" t="n">
@@ -4259,17 +4247,17 @@
         <v>5</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="51" t="n">
@@ -4298,17 +4286,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
       <c r="H29" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="51" t="n">
@@ -4337,17 +4325,17 @@
         <v>7</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="56" t="s">
@@ -4376,17 +4364,17 @@
         <v>8</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="51" t="n">
@@ -4415,21 +4403,21 @@
         <v>9</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
@@ -4454,21 +4442,21 @@
         <v>10</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
@@ -4493,21 +4481,21 @@
         <v>11</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
@@ -4532,21 +4520,21 @@
         <v>12</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
@@ -4571,17 +4559,17 @@
         <v>13</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="56" t="n">
@@ -4610,21 +4598,21 @@
         <v>14</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
@@ -4649,21 +4637,21 @@
         <v>15</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
@@ -4688,21 +4676,21 @@
         <v>16</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="63"/>
       <c r="G39" s="63"/>
       <c r="H39" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K39" s="61"/>
       <c r="L39" s="61"/>
